--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drnur\Desktop\final_twigfarm\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twigfarm/Farm/letr-sol-mt-eval/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9702256-CFBF-4E28-A5FF-477E06816E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FC391-B945-2847-AB8E-218420BD7589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1280" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>source</t>
   </si>
@@ -34,6 +34,12 @@
   <si>
     <t>Stop it! We'll all die at this rate!</t>
   </si>
+  <si>
+    <t>stop! They all die!</t>
+  </si>
+  <si>
+    <t>Stop it! You're all gonna die!</t>
+  </si>
 </sst>
 </file>
 
@@ -43,7 +49,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -51,13 +57,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -105,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,19 +447,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,12 +468,36 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
